--- a/output/fit_clients/fit_round_300.xlsx
+++ b/output/fit_clients/fit_round_300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2279417512.612259</v>
+        <v>1563870056.019319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09984246620451884</v>
+        <v>0.1080500524021682</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03748749470410238</v>
+        <v>0.04455503577185907</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1139708789.49045</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1646965213.584277</v>
+        <v>2634425798.321654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.111549357362746</v>
+        <v>0.1170016670868494</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0325981868429044</v>
+        <v>0.03410265334539312</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>823482592.1781992</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3913930613.34152</v>
+        <v>4838970627.938093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1091484901110927</v>
+        <v>0.1391301947181116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02791824831285735</v>
+        <v>0.03515182197593095</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>108</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1956965314.748278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3988949597.736941</v>
+        <v>3491079829.469367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1008768406519077</v>
+        <v>0.07390091337715242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04634982959431509</v>
+        <v>0.03597955062752378</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1994474803.26881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2871255269.145135</v>
+        <v>1939318301.025452</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1493119731640814</v>
+        <v>0.1151509149600646</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04443641011951611</v>
+        <v>0.05265420642915983</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1435627569.879365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1940144333.548361</v>
+        <v>2260369272.816941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09055914207171646</v>
+        <v>0.08785854161602054</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03632736650160392</v>
+        <v>0.03716155597984124</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>94</v>
-      </c>
-      <c r="J7" t="n">
-        <v>970072233.6775538</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2476991405.331271</v>
+        <v>3529402754.125415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2150884040605249</v>
+        <v>0.1759707571542712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02758392792183811</v>
+        <v>0.02504215157992778</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1238495706.716979</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2289376582.081345</v>
+        <v>2182539359.57415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1840434084736714</v>
+        <v>0.1445204185847606</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03355770449675719</v>
+        <v>0.02414387517452736</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1144688277.49435</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4314376298.958323</v>
+        <v>5910889117.246899</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2044894883546375</v>
+        <v>0.198575209838458</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04940627609848153</v>
+        <v>0.03579978107721456</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>126</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2157188195.709043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3800593574.603373</v>
+        <v>4210208213.683498</v>
       </c>
       <c r="F11" t="n">
-        <v>0.183105545695763</v>
+        <v>0.1372385143107115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04416730833214768</v>
+        <v>0.03593303612540226</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>124</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1900296786.117172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3037362533.378524</v>
+        <v>3197171975.423777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1978120293145087</v>
+        <v>0.1420174580898991</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0376659067874915</v>
+        <v>0.05083306787115401</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>102</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1518681288.10697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3944176792.607205</v>
+        <v>4348190050.341551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0969173233828081</v>
+        <v>0.0975188047622538</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02965700586112914</v>
+        <v>0.02365670059267293</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>101</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1972088454.069677</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3910491181.643012</v>
+        <v>2941414367.644202</v>
       </c>
       <c r="F14" t="n">
-        <v>0.169484794177819</v>
+        <v>0.1493358622096538</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0380997940704122</v>
+        <v>0.0442853782630323</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>96</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1955245559.331454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1498867684.243212</v>
+        <v>1217596701.354878</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09142752675691442</v>
+        <v>0.07948840846032795</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03891617911750977</v>
+        <v>0.03058335611801466</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>749433927.3652236</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2785861150.099167</v>
+        <v>2716362364.593855</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07547611461141657</v>
+        <v>0.1025660619653477</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03781818697730359</v>
+        <v>0.04020040392779387</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>58</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1392930580.32993</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3656319512.048013</v>
+        <v>4905460083.50841</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1276456080798178</v>
+        <v>0.1575781755959092</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05314828610667684</v>
+        <v>0.0452407811198387</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1828159807.603959</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3124277363.112535</v>
+        <v>3383828955.72887</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483247059619887</v>
+        <v>0.1675140119795479</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03408622027914018</v>
+        <v>0.02618269602733509</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>98</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1562138702.796497</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1220576170.601337</v>
+        <v>1225810419.657722</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1844143231916999</v>
+        <v>0.1801323856562527</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02683116385216013</v>
+        <v>0.02334280193150831</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>610288168.2325704</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1725128239.573985</v>
+        <v>2501436173.331609</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1284364086948586</v>
+        <v>0.1535274097880675</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0293221442386083</v>
+        <v>0.02446965504436556</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>862564175.4182924</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2434519477.40939</v>
+        <v>2195425357.987186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08527873937233733</v>
+        <v>0.06357785267646097</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03387862773803461</v>
+        <v>0.04580465173034052</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1217259733.108052</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3886744280.644125</v>
+        <v>2651695404.741007</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1332299647618189</v>
+        <v>0.1105315907743064</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05142215697944</v>
+        <v>0.03992635143993295</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>83</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1943372148.753301</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1021398352.742822</v>
+        <v>967349333.5332555</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1836187950933004</v>
+        <v>0.1856578581623976</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05184510347345291</v>
+        <v>0.04418904829124123</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>510699242.9632395</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4124247834.876384</v>
+        <v>3934228812.66881</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1403377965153145</v>
+        <v>0.1305411278086639</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0308911751534918</v>
+        <v>0.03634979855339859</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2062123877.061514</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>964322786.8537679</v>
+        <v>1091726387.128419</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09770959898428624</v>
+        <v>0.08060624291428566</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02700780776036645</v>
+        <v>0.02588505900041307</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>482161465.6411718</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1300395404.872855</v>
+        <v>1398761867.75801</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1139426778962759</v>
+        <v>0.1026297432098339</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03407029233855857</v>
+        <v>0.037325635782768</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>650197748.0500879</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3318674456.02728</v>
+        <v>2969845684.835044</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1495800888273689</v>
+        <v>0.1504301896291955</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02148313361558306</v>
+        <v>0.01644516176730342</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1659337272.008635</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2578288029.098437</v>
+        <v>2629748469.452991</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307414111543727</v>
+        <v>0.1146879390642829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03364791306750342</v>
+        <v>0.03912423998113609</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1289143989.192604</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4224497864.41517</v>
+        <v>5559628055.110918</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09994542276272193</v>
+        <v>0.1451067719061419</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04193876873653577</v>
+        <v>0.0405835359253661</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>132</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2112248933.505614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1520703995.473683</v>
+        <v>1882500144.798201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09107206828628171</v>
+        <v>0.1311977613362905</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02431014344381697</v>
+        <v>0.03669307519398787</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>760351980.6120263</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1105911598.253139</v>
+        <v>1117932479.269348</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1099200187603578</v>
+        <v>0.08261145839241783</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0317989856823896</v>
+        <v>0.0319405978327797</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>552955772.7462919</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1217821050.887555</v>
+        <v>1568795227.504431</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09982705863491914</v>
+        <v>0.08756867237028042</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02473056626367702</v>
+        <v>0.03095814798792814</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>608910535.3501978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2288754781.138363</v>
+        <v>2033746253.413109</v>
       </c>
       <c r="F33" t="n">
-        <v>0.201858124306591</v>
+        <v>0.1336935214345187</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05915285846121504</v>
+        <v>0.03724455032254028</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1144377446.754071</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1313033704.99777</v>
+        <v>978432206.1445605</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08274014047003085</v>
+        <v>0.07910716293083497</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02099085620229622</v>
+        <v>0.02032140456902987</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>656516839.0014091</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1048756205.888089</v>
+        <v>880322944.0385956</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07407462671242848</v>
+        <v>0.1069917145308537</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0386246428970517</v>
+        <v>0.04108308138043212</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>524378110.8349696</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2431522085.108377</v>
+        <v>2464588169.489027</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1127939045103259</v>
+        <v>0.1112607106675408</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02739838307114233</v>
+        <v>0.02883901805499016</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1215761070.030923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2480351569.746183</v>
+        <v>2891275712.78937</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07933643715022062</v>
+        <v>0.1094577708471427</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02999857901292182</v>
+        <v>0.0401726060616987</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1240175878.215477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1365380702.401348</v>
+        <v>2023632325.613206</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1017126007745258</v>
+        <v>0.08590429821803336</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03405619901298481</v>
+        <v>0.03560719028799235</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>682690419.4746444</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2171001164.436942</v>
+        <v>1855257907.165926</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1609317032063825</v>
+        <v>0.1501169833915026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02691230549755114</v>
+        <v>0.02148815014174039</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1085500550.783709</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1196504610.877068</v>
+        <v>1268134491.725091</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1316605104314707</v>
+        <v>0.1445276604050926</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05259496354512851</v>
+        <v>0.05451869094663956</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>598252347.5908953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2182710403.945039</v>
+        <v>2732059401.915799</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1326150684629469</v>
+        <v>0.1031195337901091</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02967646910633321</v>
+        <v>0.03026774726898669</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1091355258.292944</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3117332825.627589</v>
+        <v>3419285691.142754</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08548156019047616</v>
+        <v>0.09776642778116812</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0363246161952058</v>
+        <v>0.03700458869442859</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1558666381.353438</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2665608607.489965</v>
+        <v>1936241945.148307</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2018402410366356</v>
+        <v>0.1448131678758521</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0221940864529876</v>
+        <v>0.02379103767364119</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1332804335.754855</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1720967198.150712</v>
+        <v>1693888566.513351</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1015594441077414</v>
+        <v>0.08319363443532544</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0251945215051927</v>
+        <v>0.02867769783330419</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>860483649.7322265</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2210623540.362087</v>
+        <v>2270109210.909578</v>
       </c>
       <c r="F45" t="n">
-        <v>0.149675121199439</v>
+        <v>0.1919517071424839</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03996021019279139</v>
+        <v>0.04890799069519958</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1105311782.312721</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3877137534.393704</v>
+        <v>5392660805.988692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1321594360768661</v>
+        <v>0.1379691549604066</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05990786262328778</v>
+        <v>0.0606863906961531</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>107</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1938568729.734122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3858221521.957094</v>
+        <v>3496707766.726144</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1674244999368851</v>
+        <v>0.1920359057772367</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05832282523552337</v>
+        <v>0.04153799602643967</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>80</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1929110752.088483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4481034766.816254</v>
+        <v>4158825482.585365</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1092641352408717</v>
+        <v>0.08991766156326914</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03230672650663526</v>
+        <v>0.03407718171611217</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2240517389.818841</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1705838463.896818</v>
+        <v>1263532712.837644</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1919898212468473</v>
+        <v>0.1624488973822523</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03615519803633137</v>
+        <v>0.04048164385504054</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>852919231.975178</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2859986621.670512</v>
+        <v>2862035442.692119</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1197740188043592</v>
+        <v>0.171790902164</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03249656398516312</v>
+        <v>0.03696030192922697</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>102</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1429993380.622062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1316610162.757854</v>
+        <v>1487995132.394399</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1312865181022506</v>
+        <v>0.1423075785314722</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04960488626819353</v>
+        <v>0.03611433556294035</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>658305114.0347027</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4276646727.762189</v>
+        <v>4409494877.779514</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08621678629253496</v>
+        <v>0.1193142346593841</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04124302922068993</v>
+        <v>0.05153436851421758</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>124</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2138323404.079342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2680348780.390022</v>
+        <v>3663528486.055179</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1579246569850331</v>
+        <v>0.1310455750755044</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03118631253776752</v>
+        <v>0.0307043773651299</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1340174444.721627</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4345821913.580867</v>
+        <v>4159708001.514406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.120462719299708</v>
+        <v>0.1311788182937897</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05066020575473151</v>
+        <v>0.05303302794639937</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2172911048.030522</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4499187671.995484</v>
+        <v>4580672119.332939</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2239490492315412</v>
+        <v>0.1369323864255954</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0201188317605948</v>
+        <v>0.03194995879255764</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>87</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2249593832.936956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1759216453.386388</v>
+        <v>1551109175.439598</v>
       </c>
       <c r="F56" t="n">
-        <v>0.111690237513284</v>
+        <v>0.1500687784160333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04707668740723286</v>
+        <v>0.04122191267319628</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>879608230.5519611</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3014382499.276314</v>
+        <v>3821332547.243103</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1182170038188701</v>
+        <v>0.1412997022217243</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02360884271121869</v>
+        <v>0.0255381000020043</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>96</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1507191255.249889</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1864152864.979495</v>
+        <v>1255119088.361023</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1617581700436776</v>
+        <v>0.1376680955706714</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02656996096417817</v>
+        <v>0.03156546879614962</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>932076430.3976976</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4565634832.493349</v>
+        <v>4694656637.664087</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113360351098452</v>
+        <v>0.09390576799028733</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04037011711741611</v>
+        <v>0.03109957665858314</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>82</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2282817364.921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2363905792.476977</v>
+        <v>3279477648.400582</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1642763210133687</v>
+        <v>0.1400231205422466</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02246781597280631</v>
+        <v>0.03106279335007717</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1181952899.866517</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2973358963.198224</v>
+        <v>3223069567.679057</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1297547257530441</v>
+        <v>0.1209102268259073</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02628526978206517</v>
+        <v>0.02176522085654791</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>103</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1486679464.582672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1527860112.310758</v>
+        <v>1992262996.402682</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1844108517623802</v>
+        <v>0.1730758969056591</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0358329749711235</v>
+        <v>0.03240837898049636</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>763930043.4064957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5296728766.291734</v>
+        <v>5294110978.626239</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06956436072200266</v>
+        <v>0.09241029001124129</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04055485595392095</v>
+        <v>0.04497699771738887</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>86</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2648364387.671142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3967319361.653828</v>
+        <v>3694071860.634009</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1629430908235783</v>
+        <v>0.1829333328062559</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03538246177330132</v>
+        <v>0.02816920612654638</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>93</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1983659714.388713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4527124792.21299</v>
+        <v>4285951685.878091</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1284289357926338</v>
+        <v>0.1176781465361239</v>
       </c>
       <c r="G65" t="n">
-        <v>0.024899447704799</v>
+        <v>0.02349249924153258</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>107</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2263562383.24367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5460796773.110631</v>
+        <v>4890082807.698714</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1239851423911188</v>
+        <v>0.1110348183233189</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03132206216075764</v>
+        <v>0.03251747432027388</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>87</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2730398438.389095</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3049324688.377057</v>
+        <v>3456379879.126569</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08084477067523309</v>
+        <v>0.06895526182214309</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04833373938024912</v>
+        <v>0.03328450220801474</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>96</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1524662358.244826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3794641279.433997</v>
+        <v>4184561461.789495</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1392978250867005</v>
+        <v>0.1007271047229278</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04220866818307675</v>
+        <v>0.04075189409889615</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1897320623.055829</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1960732573.992409</v>
+        <v>2227258480.508899</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1450309871803887</v>
+        <v>0.1671275436531363</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05368784068636807</v>
+        <v>0.05799282639763398</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>980366286.8631456</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3267349805.49473</v>
+        <v>3634436559.369626</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0878649513110512</v>
+        <v>0.09661555381870292</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04657948486093613</v>
+        <v>0.03790438485241203</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1633674897.09634</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4726387149.72346</v>
+        <v>4605320020.795848</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1444994542228383</v>
+        <v>0.1142910339569741</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02918564727073413</v>
+        <v>0.02084809509725069</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>109</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2363193660.143758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1797351104.248085</v>
+        <v>1538264704.40192</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07095063057425186</v>
+        <v>0.0803174054370763</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0414690110807736</v>
+        <v>0.04799324609349467</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>898675531.1511601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3571271398.650596</v>
+        <v>2431451333.503368</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1049090668327394</v>
+        <v>0.07937081049686691</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04190933364167208</v>
+        <v>0.04841642689341637</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>114</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1785635643.001684</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3420751652.10636</v>
+        <v>3140783079.680357</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1735245996324287</v>
+        <v>0.1829651668729372</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03003928867700903</v>
+        <v>0.02254707823634489</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>102</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1710375855.076013</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2189037285.946825</v>
+        <v>1762253486.018701</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1153855162573299</v>
+        <v>0.1095121387224485</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02745377036659529</v>
+        <v>0.02310173089806393</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1094518589.437193</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4063725220.318732</v>
+        <v>5287048657.587808</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1093394784735518</v>
+        <v>0.08388422602586283</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02356081150515739</v>
+        <v>0.0315107114264284</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>73</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2031862597.520766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1710387556.10309</v>
+        <v>1932512175.437816</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1522458491309303</v>
+        <v>0.1509235629449616</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01983008072784715</v>
+        <v>0.02864756280373786</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>855193796.770926</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3850683501.81754</v>
+        <v>3369925469.584747</v>
       </c>
       <c r="F78" t="n">
-        <v>0.104665936456453</v>
+        <v>0.1102984378583761</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04945859151500573</v>
+        <v>0.05142954205318436</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>104</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1925341727.333062</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1865124010.884396</v>
+        <v>1603918041.343403</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1774016517964721</v>
+        <v>0.1598019856811775</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02669329858436058</v>
+        <v>0.0287167437487008</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>932562103.5122091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4858106198.934388</v>
+        <v>5309438968.808122</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08318952133465611</v>
+        <v>0.07479858580547935</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02365427329778345</v>
+        <v>0.03277072227160388</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2429053141.60949</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5118988771.230631</v>
+        <v>4623666995.160527</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1139969514180922</v>
+        <v>0.1265171088582326</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02229996220692522</v>
+        <v>0.02863652186343519</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>68</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2559494390.367546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3802975267.220786</v>
+        <v>4509902645.459409</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1459304171015638</v>
+        <v>0.1562772510299581</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02420321435489014</v>
+        <v>0.0255085711874414</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1901487684.360611</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1574619526.178841</v>
+        <v>2069542026.261536</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1280855253951635</v>
+        <v>0.1175854277406474</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04140031909770787</v>
+        <v>0.03073734995178333</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>787309695.4865767</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1604297191.180716</v>
+        <v>2217126777.409853</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08953047949967526</v>
+        <v>0.09718849142481598</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03914125510149125</v>
+        <v>0.03372372511363415</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>802148658.5927156</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2973697430.314191</v>
+        <v>2861671887.83009</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1771197611697517</v>
+        <v>0.1820044257796508</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03756404946056282</v>
+        <v>0.05611397751211567</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>113</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1486848772.390186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2730615712.737824</v>
+        <v>1706282139.377014</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1581312609263522</v>
+        <v>0.1294949487943681</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02757714455211004</v>
+        <v>0.0257815646433172</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>40</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1365307985.578195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1192952116.208236</v>
+        <v>1284955234.155211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1201284082900524</v>
+        <v>0.1501922402431657</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0383686300072112</v>
+        <v>0.03539247973145748</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>596476111.8983052</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2800479833.382129</v>
+        <v>2459911594.877666</v>
       </c>
       <c r="F88" t="n">
-        <v>0.121842340377311</v>
+        <v>0.1714867078177287</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03998596996963732</v>
+        <v>0.03950893577557037</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>119</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1400239927.429442</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2826956925.726364</v>
+        <v>2313895914.640652</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1125485224107999</v>
+        <v>0.1315984080882028</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03410123134923556</v>
+        <v>0.03034282380520047</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1413478513.671757</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1800051004.40014</v>
+        <v>2011262560.148282</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1383917745097344</v>
+        <v>0.1330168476603134</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05031318006149564</v>
+        <v>0.03896121335107873</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>900025535.8845801</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2073076555.75089</v>
+        <v>1449869141.615026</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1576841352020541</v>
+        <v>0.1470335083449789</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04772643336858078</v>
+        <v>0.04021207149435661</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1036538240.386601</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2210888816.89493</v>
+        <v>2935680874.942088</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07571558430285205</v>
+        <v>0.1088047403420785</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04340486159128452</v>
+        <v>0.03402761499454889</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1105444370.597566</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4321450974.672938</v>
+        <v>4979789257.787036</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1371615146248267</v>
+        <v>0.1376484845590761</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04266612692673109</v>
+        <v>0.04198973223480069</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2160725467.180688</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2385274642.331566</v>
+        <v>1823546903.127834</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1286001700990376</v>
+        <v>0.1159416202957353</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02633392426165122</v>
+        <v>0.03377565822329132</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1192637369.72215</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2144813450.087567</v>
+        <v>2163584007.812086</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1054121867850053</v>
+        <v>0.1137929512122547</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03394371034742246</v>
+        <v>0.03632819824928674</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1072406786.996669</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1523533747.069632</v>
+        <v>1521522921.153049</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08841611937720704</v>
+        <v>0.09871835314084965</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03784378005605592</v>
+        <v>0.03926036531234909</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>761766911.3783731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4747667029.111505</v>
+        <v>4916966199.01358</v>
       </c>
       <c r="F97" t="n">
-        <v>0.134538010218137</v>
+        <v>0.1414345040291067</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02044095946932854</v>
+        <v>0.0257683285398729</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2373833631.059804</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2864715899.390559</v>
+        <v>3063970885.42762</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1275056687751439</v>
+        <v>0.1208453331387608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0318808400637113</v>
+        <v>0.02481721007475576</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>79</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1432357925.219297</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3030182828.213075</v>
+        <v>2990890302.797024</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08944969876601754</v>
+        <v>0.1386042514080622</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0243263958212382</v>
+        <v>0.02456832182988321</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>94</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1515091402.251172</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3379629206.224113</v>
+        <v>4242904839.125861</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1596443469727092</v>
+        <v>0.1274410612136438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02043324402742164</v>
+        <v>0.02780132021790783</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1689814624.269306</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2224877843.488508</v>
+        <v>3354685620.97902</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1634344805641798</v>
+        <v>0.1976661036884262</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03884213420036711</v>
+        <v>0.04027736523801742</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>119</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1112438908.41198</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_300.xlsx
+++ b/output/fit_clients/fit_round_300.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1563870056.019319</v>
+        <v>2516745564.922704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1080500524021682</v>
+        <v>0.08973597446552128</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04455503577185907</v>
+        <v>0.02930225972808325</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2634425798.321654</v>
+        <v>1607313874.408826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1170016670868494</v>
+        <v>0.1337270950265172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03410265334539312</v>
+        <v>0.03164404662848212</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4838970627.938093</v>
+        <v>4055252165.0406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1391301947181116</v>
+        <v>0.1321300860897551</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03515182197593095</v>
+        <v>0.02952210692563961</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3491079829.469367</v>
+        <v>3560015591.552586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07390091337715242</v>
+        <v>0.1033170052517998</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03597955062752378</v>
+        <v>0.04886721678141306</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1939318301.025452</v>
+        <v>2505207564.229135</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1151509149600646</v>
+        <v>0.1372135963536604</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05265420642915983</v>
+        <v>0.03638566182232394</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2260369272.816941</v>
+        <v>1991384253.731206</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08785854161602054</v>
+        <v>0.07753171089512005</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03716155597984124</v>
+        <v>0.04420244325827448</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3529402754.125415</v>
+        <v>3288256844.435929</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1759707571542712</v>
+        <v>0.2075099296211493</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02504215157992778</v>
+        <v>0.02551590219284762</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2182539359.57415</v>
+        <v>1818089153.195252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1445204185847606</v>
+        <v>0.1275788874918861</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02414387517452736</v>
+        <v>0.03475387945490108</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5910889117.246899</v>
+        <v>5166679083.644072</v>
       </c>
       <c r="F10" t="n">
-        <v>0.198575209838458</v>
+        <v>0.1547242707884595</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03579978107721456</v>
+        <v>0.04584994175442762</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4210208213.683498</v>
+        <v>3662681030.422736</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1372385143107115</v>
+        <v>0.1457492382332611</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03593303612540226</v>
+        <v>0.04857241178363579</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3197171975.423777</v>
+        <v>2399351077.556428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1420174580898991</v>
+        <v>0.1673154061639271</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05083306787115401</v>
+        <v>0.0521667119261308</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4348190050.341551</v>
+        <v>5342831136.5118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0975188047622538</v>
+        <v>0.07330723985183192</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02365670059267293</v>
+        <v>0.02520339104703849</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2941414367.644202</v>
+        <v>2875762625.470844</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1493358622096538</v>
+        <v>0.1617894489962601</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0442853782630323</v>
+        <v>0.0365393404892067</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1217596701.354878</v>
+        <v>1481512238.751796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07948840846032795</v>
+        <v>0.1046788950255785</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03058335611801466</v>
+        <v>0.0456032436871587</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2716362364.593855</v>
+        <v>2736234549.246811</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1025660619653477</v>
+        <v>0.09062764767961733</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04020040392779387</v>
+        <v>0.05001187412020439</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4905460083.50841</v>
+        <v>4661915338.844702</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1575781755959092</v>
+        <v>0.157512053586307</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0452407811198387</v>
+        <v>0.05066946183549986</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3383828955.72887</v>
+        <v>2530985458.729541</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1675140119795479</v>
+        <v>0.1651071540946721</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02618269602733509</v>
+        <v>0.03337475506407246</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1225810419.657722</v>
+        <v>1051912711.715665</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1801323856562527</v>
+        <v>0.1202954267696946</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02334280193150831</v>
+        <v>0.02472897568569732</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2501436173.331609</v>
+        <v>1854704945.067745</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1535274097880675</v>
+        <v>0.1041213207845938</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02446965504436556</v>
+        <v>0.02054227468372557</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2195425357.987186</v>
+        <v>2105507994.951084</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06357785267646097</v>
+        <v>0.0969700399067132</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04580465173034052</v>
+        <v>0.03590472782581165</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2651695404.741007</v>
+        <v>3577629166.859934</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1105315907743064</v>
+        <v>0.110306849845167</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03992635143993295</v>
+        <v>0.04104703583876274</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>967349333.5332555</v>
+        <v>1390495597.265434</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1856578581623976</v>
+        <v>0.1684069120613834</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04418904829124123</v>
+        <v>0.03981341667289322</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3934228812.66881</v>
+        <v>3489105579.503995</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1305411278086639</v>
+        <v>0.1268078358719824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03634979855339859</v>
+        <v>0.03021962740438501</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1091726387.128419</v>
+        <v>900257044.5271454</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08060624291428566</v>
+        <v>0.0911112768789009</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02588505900041307</v>
+        <v>0.02907660246033733</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1398761867.75801</v>
+        <v>1114990708.061411</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1026297432098339</v>
+        <v>0.08982159424445137</v>
       </c>
       <c r="G26" t="n">
-        <v>0.037325635782768</v>
+        <v>0.02511614541770752</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2969845684.835044</v>
+        <v>4269860138.019806</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1504301896291955</v>
+        <v>0.102962782349172</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01644516176730342</v>
+        <v>0.02008830811813821</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2629748469.452991</v>
+        <v>3824341394.045196</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1146879390642829</v>
+        <v>0.1348738115345861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03912423998113609</v>
+        <v>0.03390903233840412</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5559628055.110918</v>
+        <v>4226909083.871303</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1451067719061419</v>
+        <v>0.1481555806891263</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0405835359253661</v>
+        <v>0.03537787461880888</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1882500144.798201</v>
+        <v>1742383136.226765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1311977613362905</v>
+        <v>0.1099456997634727</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03669307519398787</v>
+        <v>0.0256494321201893</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1117932479.269348</v>
+        <v>1448258558.438347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08261145839241783</v>
+        <v>0.07351249450268747</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0319405978327797</v>
+        <v>0.03256069389462922</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1568795227.504431</v>
+        <v>1207762324.063737</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08756867237028042</v>
+        <v>0.119219613305602</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03095814798792814</v>
+        <v>0.02701807665832444</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2033746253.413109</v>
+        <v>2367163638.150582</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1336935214345187</v>
+        <v>0.2022431764289235</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03724455032254028</v>
+        <v>0.04675478459994647</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>978432206.1445605</v>
+        <v>1449696315.059152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07910716293083497</v>
+        <v>0.1057605447086788</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02032140456902987</v>
+        <v>0.02671745565548289</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>880322944.0385956</v>
+        <v>1174130711.262817</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1069917145308537</v>
+        <v>0.1156310883379898</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04108308138043212</v>
+        <v>0.04355690803933372</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2464588169.489027</v>
+        <v>2754853348.413707</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1112607106675408</v>
+        <v>0.1582330358782908</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02883901805499016</v>
+        <v>0.0247328130042464</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2891275712.78937</v>
+        <v>2727308418.554206</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1094577708471427</v>
+        <v>0.1066729523582204</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0401726060616987</v>
+        <v>0.03083665754435129</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2023632325.613206</v>
+        <v>2002204750.972109</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08590429821803336</v>
+        <v>0.08966631306193652</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03560719028799235</v>
+        <v>0.03064330323253527</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1855257907.165926</v>
+        <v>2184780864.921262</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1501169833915026</v>
+        <v>0.1820433641252852</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02148815014174039</v>
+        <v>0.03163165922183062</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1268134491.725091</v>
+        <v>1815744968.834831</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1445276604050926</v>
+        <v>0.09997319724754841</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05451869094663956</v>
+        <v>0.04493023849598601</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2732059401.915799</v>
+        <v>2825600164.480321</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1031195337901091</v>
+        <v>0.1421703915510843</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03026774726898669</v>
+        <v>0.02951122606645142</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3419285691.142754</v>
+        <v>3701500831.371427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09776642778116812</v>
+        <v>0.08019382685715815</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03700458869442859</v>
+        <v>0.03073211663442301</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1936241945.148307</v>
+        <v>2616370255.87054</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1448131678758521</v>
+        <v>0.1746951149910538</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02379103767364119</v>
+        <v>0.02505283688406345</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1693888566.513351</v>
+        <v>2343598509.296877</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08319363443532544</v>
+        <v>0.0763797606116807</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02867769783330419</v>
+        <v>0.02482404010394427</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2270109210.909578</v>
+        <v>2030168639.205218</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1919517071424839</v>
+        <v>0.1195276273333977</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04890799069519958</v>
+        <v>0.04459640451370858</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5392660805.988692</v>
+        <v>4510235193.078856</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1379691549604066</v>
+        <v>0.1500103987440392</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0606863906961531</v>
+        <v>0.04236026793224406</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3496707766.726144</v>
+        <v>4207214245.928902</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1920359057772367</v>
+        <v>0.1670359854123664</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04153799602643967</v>
+        <v>0.05355938896626285</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4158825482.585365</v>
+        <v>3797234921.528462</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08991766156326914</v>
+        <v>0.09075676545798461</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03407718171611217</v>
+        <v>0.02909564426024739</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1263532712.837644</v>
+        <v>1776141078.068394</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1624488973822523</v>
+        <v>0.1686518552199489</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04048164385504054</v>
+        <v>0.02718734360241637</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2862035442.692119</v>
+        <v>2690742456.803854</v>
       </c>
       <c r="F50" t="n">
-        <v>0.171790902164</v>
+        <v>0.1208682716431474</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03696030192922697</v>
+        <v>0.05198781500358533</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1487995132.394399</v>
+        <v>1531513230.638779</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1423075785314722</v>
+        <v>0.1316455463528614</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03611433556294035</v>
+        <v>0.03932592900255111</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4409494877.779514</v>
+        <v>3843534222.722261</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1193142346593841</v>
+        <v>0.08538214815530409</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05153436851421758</v>
+        <v>0.05843043553207199</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3663528486.055179</v>
+        <v>2505974768.740398</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1310455750755044</v>
+        <v>0.1894540011655211</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0307043773651299</v>
+        <v>0.02632904891269403</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4159708001.514406</v>
+        <v>3809112583.125999</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1311788182937897</v>
+        <v>0.131571760622495</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05303302794639937</v>
+        <v>0.04754761034834603</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4580672119.332939</v>
+        <v>3631159639.04129</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1369323864255954</v>
+        <v>0.1769576087483056</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03194995879255764</v>
+        <v>0.03032192008055718</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1551109175.439598</v>
+        <v>1362136715.485237</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1500687784160333</v>
+        <v>0.1530515556675587</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04122191267319628</v>
+        <v>0.0420199610152994</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3821332547.243103</v>
+        <v>3160752633.737467</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1412997022217243</v>
+        <v>0.1329370339562174</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0255381000020043</v>
+        <v>0.01965386678789723</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1255119088.361023</v>
+        <v>1635866905.674154</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1376680955706714</v>
+        <v>0.1600491838857155</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03156546879614962</v>
+        <v>0.03875623429879192</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4694656637.664087</v>
+        <v>4205001120.873968</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09390576799028733</v>
+        <v>0.09356605290630096</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03109957665858314</v>
+        <v>0.03704435663168654</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3279477648.400582</v>
+        <v>2579444697.413182</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1400231205422466</v>
+        <v>0.1812023916378521</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03106279335007717</v>
+        <v>0.0317975366719558</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3223069567.679057</v>
+        <v>2146702697.559263</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1209102268259073</v>
+        <v>0.1463265056509144</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02176522085654791</v>
+        <v>0.0251903467762197</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1992262996.402682</v>
+        <v>2008818687.610828</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1730758969056591</v>
+        <v>0.1935985255076829</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03240837898049636</v>
+        <v>0.04067594322575971</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5294110978.626239</v>
+        <v>5241367501.390674</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09241029001124129</v>
+        <v>0.1064532877271622</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04497699771738887</v>
+        <v>0.03673501510978385</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3694071860.634009</v>
+        <v>5371177724.441689</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1829333328062559</v>
+        <v>0.1856221309711957</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02816920612654638</v>
+        <v>0.03268690383929412</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4285951685.878091</v>
+        <v>5075862644.818784</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1176781465361239</v>
+        <v>0.1531453762414356</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02349249924153258</v>
+        <v>0.0275485842334067</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4890082807.698714</v>
+        <v>3734639683.487431</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1110348183233189</v>
+        <v>0.1242839955408814</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03251747432027388</v>
+        <v>0.03137206579306485</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3456379879.126569</v>
+        <v>2218558122.16047</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06895526182214309</v>
+        <v>0.07156092022677704</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03328450220801474</v>
+        <v>0.03815719730691984</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4184561461.789495</v>
+        <v>5274335743.901859</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1007271047229278</v>
+        <v>0.1154206725949661</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04075189409889615</v>
+        <v>0.0422795518528515</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2227258480.508899</v>
+        <v>1816352572.377121</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1671275436531363</v>
+        <v>0.1183306078729586</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05799282639763398</v>
+        <v>0.04613580383015667</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3634436559.369626</v>
+        <v>2322344854.818513</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09661555381870292</v>
+        <v>0.07490243737183318</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03790438485241203</v>
+        <v>0.03076550886832263</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4605320020.795848</v>
+        <v>4515266932.716314</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1142910339569741</v>
+        <v>0.1730838406958047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02084809509725069</v>
+        <v>0.03032412040273311</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1538264704.40192</v>
+        <v>2253287472.824372</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0803174054370763</v>
+        <v>0.08280423052017968</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04799324609349467</v>
+        <v>0.04046513460351119</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2431451333.503368</v>
+        <v>3124069465.424577</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07937081049686691</v>
+        <v>0.09531525822697505</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04841642689341637</v>
+        <v>0.05044131759786279</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3140783079.680357</v>
+        <v>2945706195.447593</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1829651668729372</v>
+        <v>0.165181791305687</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02254707823634489</v>
+        <v>0.02922749306910773</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1762253486.018701</v>
+        <v>1839617656.530508</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1095121387224485</v>
+        <v>0.1550369002322801</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02310173089806393</v>
+        <v>0.0245632531646147</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5287048657.587808</v>
+        <v>4655899870.274625</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08388422602586283</v>
+        <v>0.1112970906806409</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0315107114264284</v>
+        <v>0.02668977119426834</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1932512175.437816</v>
+        <v>2204309051.499189</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1509235629449616</v>
+        <v>0.1388446568435741</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02864756280373786</v>
+        <v>0.02292926934665575</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3369925469.584747</v>
+        <v>4178226539.699436</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1102984378583761</v>
+        <v>0.08916960792722534</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05142954205318436</v>
+        <v>0.0511794352377029</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1603918041.343403</v>
+        <v>1815965643.706179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1598019856811775</v>
+        <v>0.1394070089033707</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0287167437487008</v>
+        <v>0.03642773913809608</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5309438968.808122</v>
+        <v>3570454635.639346</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07479858580547935</v>
+        <v>0.072601170402147</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03277072227160388</v>
+        <v>0.02555971740010456</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4623666995.160527</v>
+        <v>5156066371.093979</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1265171088582326</v>
+        <v>0.1291865360442229</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02863652186343519</v>
+        <v>0.0238821329072989</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4509902645.459409</v>
+        <v>4573378866.855454</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1562772510299581</v>
+        <v>0.1708015317806273</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0255085711874414</v>
+        <v>0.01952141555118528</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2069542026.261536</v>
+        <v>1870914071.272991</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1175854277406474</v>
+        <v>0.1151650813685394</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03073734995178333</v>
+        <v>0.04489875617920407</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2217126777.409853</v>
+        <v>1571053788.560527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09718849142481598</v>
+        <v>0.1022918791330918</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03372372511363415</v>
+        <v>0.03278331751420387</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2861671887.83009</v>
+        <v>3272464675.805554</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1820044257796508</v>
+        <v>0.1483575069009748</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05611397751211567</v>
+        <v>0.05109875379452076</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1706282139.377014</v>
+        <v>2186658782.134524</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1294949487943681</v>
+        <v>0.1391590097371447</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0257815646433172</v>
+        <v>0.01928307551421294</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1284955234.155211</v>
+        <v>1216082443.486302</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1501922402431657</v>
+        <v>0.1711385004603404</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03539247973145748</v>
+        <v>0.02917350126913942</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2459911594.877666</v>
+        <v>3066546811.834597</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1714867078177287</v>
+        <v>0.1626078526397743</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03950893577557037</v>
+        <v>0.02648291822571235</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2313895914.640652</v>
+        <v>3167790836.214037</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1315984080882028</v>
+        <v>0.1421920921557717</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03034282380520047</v>
+        <v>0.02608050366574285</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2011262560.148282</v>
+        <v>1711351202.319777</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1330168476603134</v>
+        <v>0.09301567233787926</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03896121335107873</v>
+        <v>0.04615753085369901</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1449869141.615026</v>
+        <v>1869320142.128893</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1470335083449789</v>
+        <v>0.1490264312475585</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04021207149435661</v>
+        <v>0.03825010874996455</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2935680874.942088</v>
+        <v>2740468364.257935</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1088047403420785</v>
+        <v>0.07100238897882029</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03402761499454889</v>
+        <v>0.03640280048955827</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4979789257.787036</v>
+        <v>4620886127.692239</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1376484845590761</v>
+        <v>0.1345366546614427</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04198973223480069</v>
+        <v>0.03482445117778178</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1823546903.127834</v>
+        <v>1711342101.30837</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1159416202957353</v>
+        <v>0.1468116304042145</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03377565822329132</v>
+        <v>0.03990496434196984</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2163584007.812086</v>
+        <v>2045499661.386935</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1137929512122547</v>
+        <v>0.08858938654562466</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03632819824928674</v>
+        <v>0.0325971515568069</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1521522921.153049</v>
+        <v>2119211458.376345</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09871835314084965</v>
+        <v>0.1172115210250708</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03926036531234909</v>
+        <v>0.03321167224360493</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4916966199.01358</v>
+        <v>3356030147.285954</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1414345040291067</v>
+        <v>0.1728461796037981</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0257683285398729</v>
+        <v>0.02757004032838203</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3063970885.42762</v>
+        <v>3159247072.374588</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1208453331387608</v>
+        <v>0.1000616825427522</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02481721007475576</v>
+        <v>0.01977780187389822</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2990890302.797024</v>
+        <v>3179186313.038341</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1386042514080622</v>
+        <v>0.1091913377128256</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02456832182988321</v>
+        <v>0.02242663887692413</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4242904839.125861</v>
+        <v>4778994213.461113</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1274410612136438</v>
+        <v>0.1135203472132712</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02780132021790783</v>
+        <v>0.02258517634112782</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3354685620.97902</v>
+        <v>2761044472.914339</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1976661036884262</v>
+        <v>0.1452565697854084</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04027736523801742</v>
+        <v>0.03856167242026641</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_300.xlsx
+++ b/output/fit_clients/fit_round_300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2516745564.922704</v>
+        <v>2277827314.872542</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08973597446552128</v>
+        <v>0.07434169616446824</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02930225972808325</v>
+        <v>0.03221573992411073</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1607313874.408826</v>
+        <v>1896511145.552301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1337270950265172</v>
+        <v>0.1421715582160009</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03164404662848212</v>
+        <v>0.04558451999557653</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4055252165.0406</v>
+        <v>4967567104.331787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1321300860897551</v>
+        <v>0.1151379297196633</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02952210692563961</v>
+        <v>0.02880402201021724</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>158</v>
+      </c>
+      <c r="J4" t="n">
+        <v>299</v>
+      </c>
+      <c r="K4" t="n">
+        <v>81.30006708993021</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3560015591.552586</v>
+        <v>2890301793.468738</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1033170052517998</v>
+        <v>0.1019517589131641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04886721678141306</v>
+        <v>0.03601875999268273</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>123</v>
+      </c>
+      <c r="J5" t="n">
+        <v>298</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2505207564.229135</v>
+        <v>1997703563.009537</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1372135963536604</v>
+        <v>0.09419548486422476</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03638566182232394</v>
+        <v>0.05064773241418906</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1991384253.731206</v>
+        <v>2120931579.407537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07753171089512005</v>
+        <v>0.0931477392076092</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04420244325827448</v>
+        <v>0.03278236199433419</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3288256844.435929</v>
+        <v>3806335536.201983</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2075099296211493</v>
+        <v>0.181230622746901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02551590219284762</v>
+        <v>0.02742429783895944</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>300</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1818089153.195252</v>
+        <v>1398616376.929151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1275788874918861</v>
+        <v>0.1611428142496394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03475387945490108</v>
+        <v>0.03714759713168203</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5166679083.644072</v>
+        <v>4276900524.623377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1547242707884595</v>
+        <v>0.185906516672156</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04584994175442762</v>
+        <v>0.04752034225447721</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>265</v>
+      </c>
+      <c r="J10" t="n">
+        <v>300</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3662681030.422736</v>
+        <v>3888194515.161289</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1457492382332611</v>
+        <v>0.1673273366581852</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04857241178363579</v>
+        <v>0.03315838740329866</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>119</v>
+      </c>
+      <c r="J11" t="n">
+        <v>300</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2399351077.556428</v>
+        <v>2282140895.296445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1673154061639271</v>
+        <v>0.1751390076228935</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0521667119261308</v>
+        <v>0.03563572862486449</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5342831136.5118</v>
+        <v>3600045578.76491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07330723985183192</v>
+        <v>0.06951932201666476</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02520339104703849</v>
+        <v>0.02173448813406562</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>154</v>
+      </c>
+      <c r="J13" t="n">
+        <v>299</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.21571217465427</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2875762625.470844</v>
+        <v>2881821542.460819</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1617894489962601</v>
+        <v>0.1826597953801088</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0365393404892067</v>
+        <v>0.04390394406942721</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1481512238.751796</v>
+        <v>1806821155.346195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1046788950255785</v>
+        <v>0.09994013913970483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0456032436871587</v>
+        <v>0.03377953404073116</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2736234549.246811</v>
+        <v>1785170364.16376</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09062764767961733</v>
+        <v>0.09238798440798915</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05001187412020439</v>
+        <v>0.03405073836862361</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4661915338.844702</v>
+        <v>4457132886.970072</v>
       </c>
       <c r="F17" t="n">
-        <v>0.157512053586307</v>
+        <v>0.14233840574173</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05066946183549986</v>
+        <v>0.03290422492932585</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>142</v>
+      </c>
+      <c r="J17" t="n">
+        <v>299</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.30433731044346</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2530985458.729541</v>
+        <v>3190703141.007755</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1651071540946721</v>
+        <v>0.1198546452449199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03337475506407246</v>
+        <v>0.02258847790189256</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1051912711.715665</v>
+        <v>850451098.6829296</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1202954267696946</v>
+        <v>0.1444968200567667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02472897568569732</v>
+        <v>0.01712663233838563</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1854704945.067745</v>
+        <v>2576952493.474279</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1041213207845938</v>
+        <v>0.1329329826915703</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02054227468372557</v>
+        <v>0.02579788649033092</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2105507994.951084</v>
+        <v>2614099635.003552</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0969700399067132</v>
+        <v>0.0873362436618989</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03590472782581165</v>
+        <v>0.04180600956230957</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3577629166.859934</v>
+        <v>3826312151.411925</v>
       </c>
       <c r="F22" t="n">
-        <v>0.110306849845167</v>
+        <v>0.1121955376418065</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04104703583876274</v>
+        <v>0.03752371753252968</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>81</v>
+      </c>
+      <c r="J22" t="n">
+        <v>300</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1390495597.265434</v>
+        <v>1547608844.229489</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1684069120613834</v>
+        <v>0.1330025861580733</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03981341667289322</v>
+        <v>0.05430917816625829</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3489105579.503995</v>
+        <v>3261926822.24051</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1268078358719824</v>
+        <v>0.09458408104656724</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03021962740438501</v>
+        <v>0.02306938866301906</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>299</v>
+      </c>
+      <c r="K24" t="n">
+        <v>53.13230075736914</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>900257044.5271454</v>
+        <v>1441003539.601983</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0911112768789009</v>
+        <v>0.07487901825205044</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02907660246033733</v>
+        <v>0.02062438082782295</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1114990708.061411</v>
+        <v>995063391.5397931</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08982159424445137</v>
+        <v>0.1098697274614853</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02511614541770752</v>
+        <v>0.03618576840783253</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4269860138.019806</v>
+        <v>4530094084.1214</v>
       </c>
       <c r="F27" t="n">
-        <v>0.102962782349172</v>
+        <v>0.1266598781737197</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02008830811813821</v>
+        <v>0.02038045294113325</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>124</v>
+      </c>
+      <c r="J27" t="n">
+        <v>299</v>
+      </c>
+      <c r="K27" t="n">
+        <v>78.41609596556201</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3824341394.045196</v>
+        <v>3191016851.687406</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1348738115345861</v>
+        <v>0.1436316397297729</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03390903233840412</v>
+        <v>0.04725757223776519</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4226909083.871303</v>
+        <v>5002250992.749538</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1481555806891263</v>
+        <v>0.1257698109328567</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03537787461880888</v>
+        <v>0.03236139739777013</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>282</v>
+      </c>
+      <c r="J29" t="n">
+        <v>300</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1742383136.226765</v>
+        <v>2195645506.096265</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1099456997634727</v>
+        <v>0.1187296530879057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0256494321201893</v>
+        <v>0.02959620236569115</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1448258558.438347</v>
+        <v>1382502952.721588</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07351249450268747</v>
+        <v>0.1091809363084957</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03256069389462922</v>
+        <v>0.04625012078373398</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1207762324.063737</v>
+        <v>1746032352.60674</v>
       </c>
       <c r="F32" t="n">
-        <v>0.119219613305602</v>
+        <v>0.1200011136737741</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02701807665832444</v>
+        <v>0.03017461040593337</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2367163638.150582</v>
+        <v>2302489575.366801</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2022431764289235</v>
+        <v>0.1824415996637593</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04675478459994647</v>
+        <v>0.05838920038558774</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1449696315.059152</v>
+        <v>1007525532.235451</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1057605447086788</v>
+        <v>0.1102551341558481</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02671745565548289</v>
+        <v>0.02475100457900728</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1174130711.262817</v>
+        <v>1130034422.081483</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1156310883379898</v>
+        <v>0.1014608866275205</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04355690803933372</v>
+        <v>0.0311179105351557</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2754853348.413707</v>
+        <v>2582304033.221204</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1582330358782908</v>
+        <v>0.1314453509130892</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0247328130042464</v>
+        <v>0.0217602076137649</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2727308418.554206</v>
+        <v>1974610458.395609</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1066729523582204</v>
+        <v>0.10487043249744</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03083665754435129</v>
+        <v>0.03132771093486005</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2002204750.972109</v>
+        <v>1673712925.398235</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08966631306193652</v>
+        <v>0.08857411036585379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03064330323253527</v>
+        <v>0.02798164474020104</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2184780864.921262</v>
+        <v>1755174583.047136</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1820433641252852</v>
+        <v>0.1634962121336798</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03163165922183062</v>
+        <v>0.03026403611374643</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1815744968.834831</v>
+        <v>1317150806.255001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09997319724754841</v>
+        <v>0.1328232803708507</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04493023849598601</v>
+        <v>0.05860783861834852</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2825600164.480321</v>
+        <v>2472774181.212438</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1421703915510843</v>
+        <v>0.1614506778871847</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02951122606645142</v>
+        <v>0.02854420253100647</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3701500831.371427</v>
+        <v>3120558770.642981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08019382685715815</v>
+        <v>0.1047393921642453</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03073211663442301</v>
+        <v>0.03118523220180965</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>123</v>
+      </c>
+      <c r="J42" t="n">
+        <v>297</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2616370255.87054</v>
+        <v>2557707521.100008</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1746951149910538</v>
+        <v>0.184356660933864</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02505283688406345</v>
+        <v>0.02449500124202699</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2343598509.296877</v>
+        <v>2231594181.241794</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0763797606116807</v>
+        <v>0.09884491346040297</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02482404010394427</v>
+        <v>0.03079141612976172</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2030168639.205218</v>
+        <v>1922270501.793664</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1195276273333977</v>
+        <v>0.1584099106492153</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04459640451370858</v>
+        <v>0.04524340126476008</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4510235193.078856</v>
+        <v>4264493913.321199</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1500103987440392</v>
+        <v>0.1437875365142885</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04236026793224406</v>
+        <v>0.03832741078202396</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>178</v>
+      </c>
+      <c r="J46" t="n">
+        <v>300</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4207214245.928902</v>
+        <v>3848919873.749895</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1670359854123664</v>
+        <v>0.1260550467808264</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05355938896626285</v>
+        <v>0.0477341729638498</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>134</v>
+      </c>
+      <c r="J47" t="n">
+        <v>299</v>
+      </c>
+      <c r="K47" t="n">
+        <v>64.66389703488238</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3797234921.528462</v>
+        <v>3801620860.065772</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09075676545798461</v>
+        <v>0.07019890723805021</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02909564426024739</v>
+        <v>0.02885213654265655</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>150</v>
+      </c>
+      <c r="J48" t="n">
+        <v>299</v>
+      </c>
+      <c r="K48" t="n">
+        <v>78.77890535366474</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1776141078.068394</v>
+        <v>1580413177.157162</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1686518552199489</v>
+        <v>0.1409278824384898</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02718734360241637</v>
+        <v>0.03878783218215732</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2690742456.803854</v>
+        <v>3352883798.343871</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1208682716431474</v>
+        <v>0.1426523969905485</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05198781500358533</v>
+        <v>0.03592560402546113</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>95</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1531513230.638779</v>
+        <v>1208670901.97176</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1316455463528614</v>
+        <v>0.1432622593384217</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03932592900255111</v>
+        <v>0.04213671665771388</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3843534222.722261</v>
+        <v>4592160255.900715</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08538214815530409</v>
+        <v>0.08918247087763605</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05843043553207199</v>
+        <v>0.04402309838874628</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>184</v>
+      </c>
+      <c r="J52" t="n">
+        <v>300</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2505974768.740398</v>
+        <v>2636254881.849592</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1894540011655211</v>
+        <v>0.147354460900727</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02632904891269403</v>
+        <v>0.02303779584891034</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3809112583.125999</v>
+        <v>3194874183.920537</v>
       </c>
       <c r="F54" t="n">
-        <v>0.131571760622495</v>
+        <v>0.106194613155184</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04754761034834603</v>
+        <v>0.03469486537382072</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>158</v>
+      </c>
+      <c r="J54" t="n">
+        <v>298</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3631159639.04129</v>
+        <v>4051848613.397269</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1769576087483056</v>
+        <v>0.1591808929971897</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03032192008055718</v>
+        <v>0.02810054005289762</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>137</v>
+      </c>
+      <c r="J55" t="n">
+        <v>300</v>
+      </c>
+      <c r="K55" t="n">
+        <v>84.43567466506133</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1362136715.485237</v>
+        <v>1148992660.081863</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1530515556675587</v>
+        <v>0.1403507822365543</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0420199610152994</v>
+        <v>0.04130438399977962</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3160752633.737467</v>
+        <v>4253590715.298314</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1329370339562174</v>
+        <v>0.1746511123290376</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01965386678789723</v>
+        <v>0.02660200573416873</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>123</v>
+      </c>
+      <c r="J57" t="n">
+        <v>300</v>
+      </c>
+      <c r="K57" t="n">
+        <v>84.44981646925388</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1635866905.674154</v>
+        <v>1360690546.27058</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1600491838857155</v>
+        <v>0.1429952582624679</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03875623429879192</v>
+        <v>0.02852431071940722</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4205001120.873968</v>
+        <v>4193247142.324238</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09356605290630096</v>
+        <v>0.1273879113448518</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03704435663168654</v>
+        <v>0.03690975551681154</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>145</v>
+      </c>
+      <c r="J59" t="n">
+        <v>299</v>
+      </c>
+      <c r="K59" t="n">
+        <v>79.48302720848541</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2579444697.413182</v>
+        <v>3166686287.07042</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1812023916378521</v>
+        <v>0.1357353482266795</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0317975366719558</v>
+        <v>0.0316729037034803</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2146702697.559263</v>
+        <v>2802002089.939949</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1463265056509144</v>
+        <v>0.1509520222815759</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0251903467762197</v>
+        <v>0.02052755269708089</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2008818687.610828</v>
+        <v>1534081672.545863</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1935985255076829</v>
+        <v>0.1544497713836515</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04067594322575971</v>
+        <v>0.03800448906779147</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5241367501.390674</v>
+        <v>4800632253.423997</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1064532877271622</v>
+        <v>0.07652079176059069</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03673501510978385</v>
+        <v>0.03731995555968206</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>146</v>
+      </c>
+      <c r="J63" t="n">
+        <v>299</v>
+      </c>
+      <c r="K63" t="n">
+        <v>80.78825460230001</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2693,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5371177724.441689</v>
+        <v>4191540934.139747</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1856221309711957</v>
+        <v>0.1902573689250137</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03268690383929412</v>
+        <v>0.02799790334540981</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>147</v>
+      </c>
+      <c r="J64" t="n">
+        <v>300</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5075862644.818784</v>
+        <v>5628760209.79196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1531453762414356</v>
+        <v>0.1413710034598654</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0275485842334067</v>
+        <v>0.02356523552593274</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>239</v>
+      </c>
+      <c r="J65" t="n">
+        <v>299</v>
+      </c>
+      <c r="K65" t="n">
+        <v>81.7401359007106</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3734639683.487431</v>
+        <v>5564850241.10193</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1242839955408814</v>
+        <v>0.1434348641606065</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03137206579306485</v>
+        <v>0.04021099335098851</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>148</v>
+      </c>
+      <c r="J66" t="n">
+        <v>299</v>
+      </c>
+      <c r="K66" t="n">
+        <v>75.75966467268759</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2218558122.16047</v>
+        <v>2287987926.344466</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07156092022677704</v>
+        <v>0.06219230014629114</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03815719730691984</v>
+        <v>0.03222092486497932</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5274335743.901859</v>
+        <v>4055146362.39663</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1154206725949661</v>
+        <v>0.1027731544633514</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0422795518528515</v>
+        <v>0.03633138148747637</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>159</v>
+      </c>
+      <c r="J68" t="n">
+        <v>300</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82.61743984322439</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1816352572.377121</v>
+        <v>1698367195.641545</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1183306078729586</v>
+        <v>0.1689540165800781</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04613580383015667</v>
+        <v>0.0455493026436512</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2322344854.818513</v>
+        <v>3712553135.036208</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07490243737183318</v>
+        <v>0.06831092512446357</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03076550886832263</v>
+        <v>0.03284969424879484</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>44</v>
+      </c>
+      <c r="J70" t="n">
+        <v>300</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4515266932.716314</v>
+        <v>5140361311.829837</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1730838406958047</v>
+        <v>0.1121811963846661</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03032412040273311</v>
+        <v>0.02452648744095566</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>224</v>
+      </c>
+      <c r="J71" t="n">
+        <v>300</v>
+      </c>
+      <c r="K71" t="n">
+        <v>84.86662568580871</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2253287472.824372</v>
+        <v>1411172603.866738</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08280423052017968</v>
+        <v>0.09086742076196536</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04046513460351119</v>
+        <v>0.04840635797470606</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3124069465.424577</v>
+        <v>2371401524.895359</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09531525822697505</v>
+        <v>0.07164646286187981</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05044131759786279</v>
+        <v>0.03594572269326554</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2945706195.447593</v>
+        <v>2446105525.152988</v>
       </c>
       <c r="F74" t="n">
-        <v>0.165181791305687</v>
+        <v>0.1397563532366564</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02922749306910773</v>
+        <v>0.02817267679693599</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1839617656.530508</v>
+        <v>1717026405.319394</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1550369002322801</v>
+        <v>0.131962829217607</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0245632531646147</v>
+        <v>0.0248542636453277</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4655899870.274625</v>
+        <v>4009554131.316488</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1112970906806409</v>
+        <v>0.09281491805766497</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02668977119426834</v>
+        <v>0.02786384073770661</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>141</v>
+      </c>
+      <c r="J76" t="n">
+        <v>299</v>
+      </c>
+      <c r="K76" t="n">
+        <v>75.95211053002758</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204309051.499189</v>
+        <v>1528966162.774051</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1388446568435741</v>
+        <v>0.1868992722355059</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02292926934665575</v>
+        <v>0.02925029278328876</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4178226539.699436</v>
+        <v>3122063649.159349</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08916960792722534</v>
+        <v>0.1007181777519363</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0511794352377029</v>
+        <v>0.0412440488273678</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>149</v>
+      </c>
+      <c r="J78" t="n">
+        <v>298</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1815965643.706179</v>
+        <v>1411874991.622639</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1394070089033707</v>
+        <v>0.1249412824444035</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03642773913809608</v>
+        <v>0.0398260291191179</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3570454635.639346</v>
+        <v>5307036399.254201</v>
       </c>
       <c r="F80" t="n">
-        <v>0.072601170402147</v>
+        <v>0.07699518096255593</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02555971740010456</v>
+        <v>0.02615575361119765</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>146</v>
+      </c>
+      <c r="J80" t="n">
+        <v>300</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5156066371.093979</v>
+        <v>3655512524.524674</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1291865360442229</v>
+        <v>0.1154407532735545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0238821329072989</v>
+        <v>0.03279178522980516</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>138</v>
+      </c>
+      <c r="J81" t="n">
+        <v>299</v>
+      </c>
+      <c r="K81" t="n">
+        <v>60.04106258472393</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4573378866.855454</v>
+        <v>5204324051.828018</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1708015317806273</v>
+        <v>0.1614508248236228</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01952141555118528</v>
+        <v>0.02725452947689798</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>219</v>
+      </c>
+      <c r="J82" t="n">
+        <v>300</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1870914071.272991</v>
+        <v>1803718630.083473</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1151650813685394</v>
+        <v>0.1225542378121365</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04489875617920407</v>
+        <v>0.03982522351615661</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1571053788.560527</v>
+        <v>1877925922.283541</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1022918791330918</v>
+        <v>0.09865730945973322</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03278331751420387</v>
+        <v>0.04439062962640442</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3272464675.805554</v>
+        <v>3339105650.330618</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1483575069009748</v>
+        <v>0.1255622342234669</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05109875379452076</v>
+        <v>0.05630403126376736</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2186658782.134524</v>
+        <v>2181563053.505406</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1391590097371447</v>
+        <v>0.1113901398873696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01928307551421294</v>
+        <v>0.01821696990486838</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1216082443.486302</v>
+        <v>1075958317.020118</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1711385004603404</v>
+        <v>0.1381840593190277</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02917350126913942</v>
+        <v>0.04074112659259469</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3066546811.834597</v>
+        <v>3679062111.9493</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1626078526397743</v>
+        <v>0.1701785309788721</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02648291822571235</v>
+        <v>0.02459361500148142</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>42</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3167790836.214037</v>
+        <v>2762177220.292446</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1421920921557717</v>
+        <v>0.1332834814086533</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02608050366574285</v>
+        <v>0.03543271553288485</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1711351202.319777</v>
+        <v>1990056929.734195</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09301567233787926</v>
+        <v>0.1175786095866626</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04615753085369901</v>
+        <v>0.04056362993316812</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1869320142.128893</v>
+        <v>1937927361.709207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1490264312475585</v>
+        <v>0.1793566664909273</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03825010874996455</v>
+        <v>0.05519104047157368</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2740468364.257935</v>
+        <v>2408608814.978632</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07100238897882029</v>
+        <v>0.09736431554241057</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03640280048955827</v>
+        <v>0.04523693750547541</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4620886127.692239</v>
+        <v>4966921546.8174</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1345366546614427</v>
+        <v>0.1148537090522227</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03482445117778178</v>
+        <v>0.04204892467372082</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>134</v>
+      </c>
+      <c r="J93" t="n">
+        <v>300</v>
+      </c>
+      <c r="K93" t="n">
+        <v>84.24084817879826</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1711342101.30837</v>
+        <v>1994272193.210247</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1468116304042145</v>
+        <v>0.1105362874331614</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03990496434196984</v>
+        <v>0.03280884950490298</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2045499661.386935</v>
+        <v>2513469165.959549</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08858938654562466</v>
+        <v>0.1022504878596944</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0325971515568069</v>
+        <v>0.03458161850305247</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2119211458.376345</v>
+        <v>2381468102.437872</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1172115210250708</v>
+        <v>0.1047469230999492</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03321167224360493</v>
+        <v>0.03853006919415061</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3356030147.285954</v>
+        <v>3253195704.322896</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1728461796037981</v>
+        <v>0.15682097144157</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02757004032838203</v>
+        <v>0.02874907478569447</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>150</v>
+      </c>
+      <c r="J97" t="n">
+        <v>299</v>
+      </c>
+      <c r="K97" t="n">
+        <v>54.28139993712458</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3159247072.374588</v>
+        <v>3173983024.99597</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1000616825427522</v>
+        <v>0.1183539137011658</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01977780187389822</v>
+        <v>0.03137681203291459</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>74</v>
+      </c>
+      <c r="J98" t="n">
+        <v>299</v>
+      </c>
+      <c r="K98" t="n">
+        <v>50.43692139909759</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3179186313.038341</v>
+        <v>2163385065.601974</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1091913377128256</v>
+        <v>0.1300554831318689</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02242663887692413</v>
+        <v>0.02313045618797729</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4778994213.461113</v>
+        <v>3884024354.531603</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1135203472132712</v>
+        <v>0.1796033739286936</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02258517634112782</v>
+        <v>0.01892549272652998</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>129</v>
+      </c>
+      <c r="J100" t="n">
+        <v>300</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2761044472.914339</v>
+        <v>3379565596.755339</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452565697854084</v>
+        <v>0.1902186245324928</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03856167242026641</v>
+        <v>0.04910887125258129</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>300</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
